--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2444765.919600392</v>
+        <v>-2447674.867671757</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.20660207479023</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>20.78638285458269</v>
+        <v>39.70122005612006</v>
       </c>
       <c r="E2" t="n">
         <v>187.5255871663201</v>
@@ -671,13 +671,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,28 +738,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21.49627545988759</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>79.31952518303736</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>34.10833718734072</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>335.2544961588346</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>335.254496158832</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.58659989534474</v>
+        <v>12.58659989534475</v>
       </c>
       <c r="H5" t="n">
-        <v>311.6581577170896</v>
+        <v>311.6581577170898</v>
       </c>
       <c r="I5" t="n">
-        <v>105.76199398344</v>
+        <v>105.7619939834403</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>147.1260835752736</v>
+        <v>147.1260835752739</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>54.04001315137642</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>46.53777546267076</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>335.254496158832</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>117.1110098801014</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>49.48683303354443</v>
+        <v>49.48683303354459</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.6894715620621</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.3070640244811</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8457727555612</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>26.23835117175347</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>89.94039745900135</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>118.8108916074428</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>208.7512890664475</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>131.9409413107341</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>263.102564476337</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>43.44069801691121</v>
+        <v>73.40863393742029</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>196.0623584246555</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>126.4643665640119</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.7763380130611</v>
       </c>
     </row>
     <row r="14">
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>185.7223172888148</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2053,10 +2053,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>96.99837838564358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>94.5970333621318</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>98.9509526216608</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>173.9610973318235</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,10 +2716,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545302</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617.487882916337</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="C2" t="n">
-        <v>428.068097899852</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="D2" t="n">
-        <v>407.0717515820917</v>
+        <v>520.580321167866</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656068</v>
+        <v>331.1605361513812</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912182</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985589</v>
@@ -4349,31 +4349,31 @@
         <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262261</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262261</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262261</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262261</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262261</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262261</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262261</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262261</v>
+        <v>560.6825636487954</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>581.8870116452124</v>
+        <v>581.8870116452122</v>
       </c>
       <c r="C3" t="n">
-        <v>407.4339823640854</v>
+        <v>581.8870116452122</v>
       </c>
       <c r="D3" t="n">
-        <v>407.4339823640854</v>
+        <v>560.1736020897702</v>
       </c>
       <c r="E3" t="n">
-        <v>248.1965273586299</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="F3" t="n">
-        <v>168.0757948505114</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296051</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652803</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.0396705623018</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396344</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702829</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>49.45491281910431</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.7570197901011</v>
+        <v>806.7570197900988</v>
       </c>
       <c r="C5" t="n">
-        <v>806.7570197901011</v>
+        <v>806.7570197900988</v>
       </c>
       <c r="D5" t="n">
-        <v>468.1161145791571</v>
+        <v>806.7570197900988</v>
       </c>
       <c r="E5" t="n">
-        <v>468.1161145791571</v>
+        <v>468.1161145791573</v>
       </c>
       <c r="F5" t="n">
-        <v>461.1706138299537</v>
+        <v>461.1706138299539</v>
       </c>
       <c r="G5" t="n">
-        <v>448.4568765619287</v>
+        <v>448.4568765619289</v>
       </c>
       <c r="H5" t="n">
-        <v>133.6506566456764</v>
+        <v>133.6506566456766</v>
       </c>
       <c r="I5" t="n">
-        <v>26.82035969270677</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="J5" t="n">
-        <v>75.80841166588823</v>
+        <v>75.80841166588749</v>
       </c>
       <c r="K5" t="n">
-        <v>199.9673209772251</v>
+        <v>199.9673209772232</v>
       </c>
       <c r="L5" t="n">
-        <v>390.8991887176465</v>
+        <v>390.8991887176426</v>
       </c>
       <c r="M5" t="n">
-        <v>635.0171176553415</v>
+        <v>635.0171176553361</v>
       </c>
       <c r="N5" t="n">
-        <v>887.6989382795183</v>
+        <v>887.6989382795116</v>
       </c>
       <c r="O5" t="n">
-        <v>1112.963955034628</v>
+        <v>1112.96395503462</v>
       </c>
       <c r="P5" t="n">
-        <v>1270.721434285804</v>
+        <v>1270.721434285794</v>
       </c>
       <c r="Q5" t="n">
-        <v>1341.017984635339</v>
+        <v>1341.017984635328</v>
       </c>
       <c r="R5" t="n">
-        <v>1341.017984635339</v>
+        <v>1341.017984635328</v>
       </c>
       <c r="S5" t="n">
-        <v>1192.405779003749</v>
+        <v>1192.405779003738</v>
       </c>
       <c r="T5" t="n">
-        <v>1192.405779003749</v>
+        <v>1192.405779003738</v>
       </c>
       <c r="U5" t="n">
-        <v>1137.819907133672</v>
+        <v>1192.405779003738</v>
       </c>
       <c r="V5" t="n">
-        <v>806.7570197901011</v>
+        <v>1145.39792500104</v>
       </c>
       <c r="W5" t="n">
-        <v>806.7570197901011</v>
+        <v>1145.39792500104</v>
       </c>
       <c r="X5" t="n">
-        <v>806.7570197901011</v>
+        <v>806.7570197900988</v>
       </c>
       <c r="Y5" t="n">
-        <v>806.7570197901011</v>
+        <v>806.7570197900988</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509.5389116204753</v>
+        <v>360.604501959224</v>
       </c>
       <c r="C6" t="n">
-        <v>509.5389116204753</v>
+        <v>360.604501959224</v>
       </c>
       <c r="D6" t="n">
         <v>360.604501959224</v>
@@ -4632,64 +4632,64 @@
         <v>360.604501959224</v>
       </c>
       <c r="F6" t="n">
-        <v>214.069943986109</v>
+        <v>214.0699439861089</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80705972659004</v>
+        <v>76.80705972658998</v>
       </c>
       <c r="H6" t="n">
-        <v>76.80705972659004</v>
+        <v>76.80705972658998</v>
       </c>
       <c r="I6" t="n">
-        <v>26.82035969270677</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="J6" t="n">
-        <v>37.17946088918769</v>
+        <v>37.179460889187</v>
       </c>
       <c r="K6" t="n">
-        <v>133.0396395322608</v>
+        <v>133.0396395322593</v>
       </c>
       <c r="L6" t="n">
-        <v>308.2580207538336</v>
+        <v>308.2580207538311</v>
       </c>
       <c r="M6" t="n">
-        <v>532.0864752945536</v>
+        <v>532.0864752945497</v>
       </c>
       <c r="N6" t="n">
-        <v>776.2476479203606</v>
+        <v>776.2476479203555</v>
       </c>
       <c r="O6" t="n">
-        <v>977.387624917357</v>
+        <v>977.3876249173508</v>
       </c>
       <c r="P6" t="n">
-        <v>1119.48712302778</v>
+        <v>1119.487123027773</v>
       </c>
       <c r="Q6" t="n">
-        <v>1164.557677933906</v>
+        <v>1164.557677933898</v>
       </c>
       <c r="R6" t="n">
-        <v>1164.557677933906</v>
+        <v>1164.557677933898</v>
       </c>
       <c r="S6" t="n">
-        <v>1018.406696558086</v>
+        <v>1164.557677933898</v>
       </c>
       <c r="T6" t="n">
-        <v>1018.406696558086</v>
+        <v>968.287916293008</v>
       </c>
       <c r="U6" t="n">
-        <v>790.2796533706501</v>
+        <v>968.287916293008</v>
       </c>
       <c r="V6" t="n">
-        <v>790.2796533706501</v>
+        <v>733.1358080612654</v>
       </c>
       <c r="W6" t="n">
-        <v>536.0422966424485</v>
+        <v>478.8984513330637</v>
       </c>
       <c r="X6" t="n">
-        <v>509.5389116204753</v>
+        <v>478.8984513330637</v>
       </c>
       <c r="Y6" t="n">
-        <v>509.5389116204753</v>
+        <v>478.8984513330637</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.82035969270677</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="C7" t="n">
-        <v>26.82035969270677</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="D7" t="n">
-        <v>26.82035969270677</v>
+        <v>146.8313613163861</v>
       </c>
       <c r="E7" t="n">
-        <v>26.82035969270677</v>
+        <v>146.8313613163861</v>
       </c>
       <c r="F7" t="n">
-        <v>26.82035969270677</v>
+        <v>146.8313613163861</v>
       </c>
       <c r="G7" t="n">
-        <v>26.82035969270677</v>
+        <v>146.8313613163861</v>
       </c>
       <c r="H7" t="n">
-        <v>26.82035969270677</v>
+        <v>146.8313613163861</v>
       </c>
       <c r="I7" t="n">
-        <v>26.82035969270677</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="J7" t="n">
-        <v>26.82035969270677</v>
+        <v>26.82035969270656</v>
       </c>
       <c r="K7" t="n">
-        <v>39.23367185447259</v>
+        <v>39.2336718544719</v>
       </c>
       <c r="L7" t="n">
-        <v>85.02423536994695</v>
+        <v>85.02423536994567</v>
       </c>
       <c r="M7" t="n">
-        <v>136.5622473004349</v>
+        <v>136.562247300433</v>
       </c>
       <c r="N7" t="n">
-        <v>194.7323264062845</v>
+        <v>194.732326406282</v>
       </c>
       <c r="O7" t="n">
-        <v>228.1487206430498</v>
+        <v>228.1487206430467</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6802476386133</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.6802476386133</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="R7" t="n">
-        <v>237.6802476386133</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="S7" t="n">
-        <v>237.6802476386133</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="T7" t="n">
-        <v>237.6802476386133</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="U7" t="n">
-        <v>237.6802476386133</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="V7" t="n">
-        <v>26.82035969270677</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="W7" t="n">
-        <v>26.82035969270677</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="X7" t="n">
-        <v>26.82035969270677</v>
+        <v>237.6802476386097</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.82035969270677</v>
+        <v>237.6802476386097</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>979.0278707680193</v>
+        <v>1429.091331570417</v>
       </c>
       <c r="C8" t="n">
-        <v>979.0278707680193</v>
+        <v>1060.128814630005</v>
       </c>
       <c r="D8" t="n">
-        <v>979.0278707680193</v>
+        <v>701.8631160232549</v>
       </c>
       <c r="E8" t="n">
-        <v>979.0278707680193</v>
+        <v>316.0748634250106</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>309.1293626758072</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4805,16 +4805,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1705.262284299213</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1352.493629029099</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X8" t="n">
-        <v>979.0278707680193</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="Y8" t="n">
-        <v>979.0278707680193</v>
+        <v>1815.691171634539</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>709.194777326768</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>534.741748045641</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>385.8073383843897</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>226.5698833789342</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809306</v>
@@ -4917,16 +4917,16 @@
         <v>1367.172048607646</v>
       </c>
       <c r="V9" t="n">
-        <v>1132.019940375904</v>
+        <v>1367.172048607646</v>
       </c>
       <c r="W9" t="n">
-        <v>1088.140447429529</v>
+        <v>1293.021913317323</v>
       </c>
       <c r="X9" t="n">
-        <v>880.2889472239958</v>
+        <v>1085.17041311179</v>
       </c>
       <c r="Y9" t="n">
-        <v>672.5286484590418</v>
+        <v>877.4101143468361</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
         <v>43.36919653809306</v>
@@ -4981,31 +4981,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>388.3019303235343</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="T10" t="n">
-        <v>388.3019303235343</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="U10" t="n">
-        <v>190.2591440360034</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V10" t="n">
-        <v>190.2591440360034</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,13 +5060,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.5010142286973</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>748.5648313007904</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>598.4481918884546</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>450.5350983060615</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>303.6451508081511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>303.6451508081511</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058937</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>636.6680198981028</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>467.7318369701959</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>818.3164847283425</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1111.379442165859</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2204.199099699508</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,16 +6379,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,25 +6482,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6549,16 +6549,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311324</v>
@@ -6886,7 +6886,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
@@ -6895,13 +6895,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,19 +7093,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
         <v>2179.340199382518</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,22 +7345,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7497,13 +7497,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328.5272395886903</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>314.9818215645629</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>148.3546440003834</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.64367339871027</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>34.57770336425651</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>13.83034628221195</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>24.8083153390337</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>100.4621571004294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>72.64978773649604</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>126.7587027673763</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>7.065188669821083</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-4.709566198145672e-13</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-3.501643547353501e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143662</v>
+        <v>32460.9111614366</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321419</v>
@@ -26326,34 +26326,34 @@
         <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450033</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="I2" t="n">
         <v>40357.3299845003</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208455</v>
       </c>
       <c r="C3" t="n">
-        <v>163527.4916130738</v>
+        <v>163527.4916130709</v>
       </c>
       <c r="D3" t="n">
-        <v>216759.9319010248</v>
+        <v>216759.9319010276</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742651</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68492.66272217642</v>
+        <v>68492.66272217644</v>
       </c>
       <c r="K3" t="n">
-        <v>38020.69384958548</v>
+        <v>38020.69384958474</v>
       </c>
       <c r="L3" t="n">
-        <v>52354.5208254458</v>
+        <v>52354.52082544649</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180465.3416072034</v>
+        <v>180465.3416072033</v>
       </c>
       <c r="C4" t="n">
-        <v>235058.4539805406</v>
+        <v>235058.4539805414</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26433,28 +26433,28 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22817.55530496089</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="M4" t="n">
         <v>22817.55530496085</v>
       </c>
-      <c r="K4" t="n">
-        <v>22817.55530496082</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22817.55530496084</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22817.55530496083</v>
-      </c>
       <c r="N4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496085</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496086</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496082</v>
@@ -26470,7 +26470,7 @@
         <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>68740.00864417505</v>
+        <v>68740.00864417483</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-796347.133378226</v>
+        <v>-796776.6922448146</v>
       </c>
       <c r="C6" t="n">
-        <v>-426273.8657445753</v>
+        <v>-426273.865744573</v>
       </c>
       <c r="D6" t="n">
-        <v>-435109.9153525806</v>
+        <v>-435109.9153525833</v>
       </c>
       <c r="E6" t="n">
-        <v>-677035.1034555392</v>
+        <v>-677069.841380975</v>
       </c>
       <c r="F6" t="n">
-        <v>-75591.89588127416</v>
+        <v>-75626.63380670985</v>
       </c>
       <c r="G6" t="n">
-        <v>-75591.89588127413</v>
+        <v>-75626.63380670988</v>
       </c>
       <c r="H6" t="n">
-        <v>-75591.89588127418</v>
+        <v>-75626.63380670991</v>
       </c>
       <c r="I6" t="n">
-        <v>-75591.89588127419</v>
+        <v>-75626.63380670988</v>
       </c>
       <c r="J6" t="n">
         <v>-153422.2453878385</v>
       </c>
       <c r="K6" t="n">
-        <v>-122950.2765152475</v>
+        <v>-122950.2765152468</v>
       </c>
       <c r="L6" t="n">
-        <v>-137284.1034911079</v>
+        <v>-137284.1034911085</v>
       </c>
       <c r="M6" t="n">
-        <v>-242075.96321726</v>
+        <v>-242075.9632172601</v>
       </c>
       <c r="N6" t="n">
-        <v>-84929.58266566205</v>
+        <v>-84929.58266566206</v>
       </c>
       <c r="O6" t="n">
         <v>-104357.3006592939</v>
       </c>
       <c r="P6" t="n">
-        <v>-84929.58266566205</v>
+        <v>-84929.58266566203</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>675.6392329228395</v>
+        <v>675.6392329228372</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26790,7 +26790,7 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>335.2544961588346</v>
+        <v>335.254496158832</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>127.1692920099347</v>
+        <v>127.1692920099325</v>
       </c>
       <c r="D3" t="n">
-        <v>178.0714316148446</v>
+        <v>178.0714316148469</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039896</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>147.7289089925145</v>
+        <v>147.7289089925119</v>
       </c>
       <c r="D4" t="n">
-        <v>206.8604605673286</v>
+        <v>206.8604605673312</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925145</v>
+        <v>147.7289089925117</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673286</v>
+        <v>206.8604605673315</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925145</v>
+        <v>147.7289089925119</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673286</v>
+        <v>206.8604605673312</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>333.8966587661002</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>65.08923705582333</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,28 +27458,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>125.9487901047512</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>65.74968721034652</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>94.21801639213453</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,16 +27588,16 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>19.42854546184833</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>46.67587391342983</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.96795805497908</v>
+        <v>44.96795805497965</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>211.2059571334993</v>
       </c>
       <c r="U5" t="n">
-        <v>197.0883487468768</v>
+        <v>251.1283618982533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>281.2144830074641</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>34.47660451963708</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>49.42217376976596</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.19999526577861</v>
+        <v>98.19999526577865</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>55.44979659362697</v>
+        <v>55.44979659362728</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.6894715620622</v>
       </c>
       <c r="T6" t="n">
-        <v>194.3070640244811</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8457727555612</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>179.534634031724</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>58.67507555921101</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>151.3947926746767</v>
       </c>
       <c r="I7" t="n">
-        <v>118.8108916074427</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>40.85695726823346</v>
+        <v>40.85695726823374</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.48347745809708</v>
+        <v>49.48347745809743</v>
       </c>
       <c r="R7" t="n">
-        <v>122.5112332454258</v>
+        <v>122.511233245426</v>
       </c>
       <c r="S7" t="n">
-        <v>202.7838044383971</v>
+        <v>202.7838044383972</v>
       </c>
       <c r="T7" t="n">
         <v>222.739844518876</v>
@@ -27831,7 +27831,7 @@
         <v>286.2525730384985</v>
       </c>
       <c r="V7" t="n">
-        <v>43.38635425738053</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>274.9351044309774</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>148.7681703672898</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27910,13 +27910,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,10 +27989,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>208.2542851440084</v>
+        <v>178.2863492234993</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>11.55974009872591</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>90.17269939106114</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.716137619790307</v>
+        <v>2.716137619790298</v>
       </c>
       <c r="H5" t="n">
-        <v>27.81664439867749</v>
+        <v>27.8166443986774</v>
       </c>
       <c r="I5" t="n">
-        <v>104.7138955869659</v>
+        <v>104.7138955869656</v>
       </c>
       <c r="J5" t="n">
-        <v>230.5287853076778</v>
+        <v>230.528785307677</v>
       </c>
       <c r="K5" t="n">
-        <v>345.5028907534016</v>
+        <v>345.5028907534004</v>
       </c>
       <c r="L5" t="n">
-        <v>428.6268874350593</v>
+        <v>428.6268874350579</v>
       </c>
       <c r="M5" t="n">
-        <v>476.9299998310051</v>
+        <v>476.9299998310036</v>
       </c>
       <c r="N5" t="n">
-        <v>484.6472258432344</v>
+        <v>484.6472258432328</v>
       </c>
       <c r="O5" t="n">
-        <v>457.6386323864445</v>
+        <v>457.638632386443</v>
       </c>
       <c r="P5" t="n">
-        <v>390.5839848978712</v>
+        <v>390.5839848978699</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.3123063891308</v>
+        <v>293.3123063891298</v>
       </c>
       <c r="R5" t="n">
-        <v>170.617579759153</v>
+        <v>170.6175797591525</v>
       </c>
       <c r="S5" t="n">
-        <v>61.89398601097169</v>
+        <v>61.89398601097148</v>
       </c>
       <c r="T5" t="n">
-        <v>11.88989243063208</v>
+        <v>11.88989243063204</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2172910095832246</v>
+        <v>0.2172910095832238</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.453261746286862</v>
+        <v>1.453261746286857</v>
       </c>
       <c r="H6" t="n">
-        <v>14.03544897071786</v>
+        <v>14.03544897071781</v>
       </c>
       <c r="I6" t="n">
-        <v>50.03554696645557</v>
+        <v>50.03554696645541</v>
       </c>
       <c r="J6" t="n">
-        <v>137.3013652489707</v>
+        <v>137.3013652489702</v>
       </c>
       <c r="K6" t="n">
-        <v>234.6699022501904</v>
+        <v>234.6699022501896</v>
       </c>
       <c r="L6" t="n">
-        <v>315.5426436400488</v>
+        <v>315.5426436400477</v>
       </c>
       <c r="M6" t="n">
-        <v>368.2233819429475</v>
+        <v>368.2233819429462</v>
       </c>
       <c r="N6" t="n">
-        <v>377.9691591801081</v>
+        <v>377.9691591801068</v>
       </c>
       <c r="O6" t="n">
-        <v>345.7679383808045</v>
+        <v>345.7679383808033</v>
       </c>
       <c r="P6" t="n">
-        <v>277.509253990515</v>
+        <v>277.509253990514</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.5075871225125</v>
+        <v>185.5075871225119</v>
       </c>
       <c r="R6" t="n">
-        <v>90.22970737033698</v>
+        <v>90.22970737033667</v>
       </c>
       <c r="S6" t="n">
-        <v>26.99369954177569</v>
+        <v>26.9936995417756</v>
       </c>
       <c r="T6" t="n">
-        <v>5.857664670340465</v>
+        <v>5.857664670340445</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09560932541360941</v>
+        <v>0.09560932541360909</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.218365829860858</v>
+        <v>1.218365829860854</v>
       </c>
       <c r="H7" t="n">
-        <v>10.83237983276291</v>
+        <v>10.83237983276287</v>
       </c>
       <c r="I7" t="n">
-        <v>36.63958331981563</v>
+        <v>36.63958331981551</v>
       </c>
       <c r="J7" t="n">
-        <v>86.13846417116265</v>
+        <v>86.13846417116237</v>
       </c>
       <c r="K7" t="n">
-        <v>141.5519573238342</v>
+        <v>141.5519573238337</v>
       </c>
       <c r="L7" t="n">
-        <v>181.1377707413134</v>
+        <v>181.1377707413128</v>
       </c>
       <c r="M7" t="n">
-        <v>190.9843818571888</v>
+        <v>190.9843818571882</v>
       </c>
       <c r="N7" t="n">
-        <v>186.4432001277076</v>
+        <v>186.443200127707</v>
       </c>
       <c r="O7" t="n">
-        <v>172.210472024333</v>
+        <v>172.2104720243324</v>
       </c>
       <c r="P7" t="n">
-        <v>147.3558090951713</v>
+        <v>147.3558090951709</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.0215241713488</v>
+        <v>102.0215241713484</v>
       </c>
       <c r="R7" t="n">
-        <v>54.78215813174366</v>
+        <v>54.78215813174347</v>
       </c>
       <c r="S7" t="n">
-        <v>21.23279359857512</v>
+        <v>21.23279359857505</v>
       </c>
       <c r="T7" t="n">
-        <v>5.205744909405483</v>
+        <v>5.205744909405465</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06645631799241052</v>
+        <v>0.06645631799241029</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>338.6542681503486</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>576.057346513631</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.48288078099154</v>
+        <v>49.48288078099074</v>
       </c>
       <c r="K5" t="n">
-        <v>125.413039708421</v>
+        <v>125.4130397084199</v>
       </c>
       <c r="L5" t="n">
-        <v>192.8604724650721</v>
+        <v>192.8604724650706</v>
       </c>
       <c r="M5" t="n">
-        <v>246.5837666037324</v>
+        <v>246.5837666037308</v>
       </c>
       <c r="N5" t="n">
-        <v>255.2341622466435</v>
+        <v>255.2341622466419</v>
       </c>
       <c r="O5" t="n">
-        <v>227.5404209647578</v>
+        <v>227.5404209647562</v>
       </c>
       <c r="P5" t="n">
-        <v>159.3509891426017</v>
+        <v>159.3509891426004</v>
       </c>
       <c r="Q5" t="n">
-        <v>71.00661651468127</v>
+        <v>71.0066165146803</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.46373858230396</v>
+        <v>10.46373858230348</v>
       </c>
       <c r="K6" t="n">
-        <v>96.82846327583141</v>
+        <v>96.82846327583061</v>
       </c>
       <c r="L6" t="n">
-        <v>176.9882638601746</v>
+        <v>176.9882638601736</v>
       </c>
       <c r="M6" t="n">
-        <v>226.0893480209292</v>
+        <v>226.0893480209279</v>
       </c>
       <c r="N6" t="n">
-        <v>246.6274470967748</v>
+        <v>246.6274470967735</v>
       </c>
       <c r="O6" t="n">
-        <v>203.17169393636</v>
+        <v>203.1716939363588</v>
       </c>
       <c r="P6" t="n">
-        <v>143.5348465761847</v>
+        <v>143.5348465761838</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.52581303649097</v>
+        <v>45.52581303649035</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>12.53869915329881</v>
+        <v>12.53869915329832</v>
       </c>
       <c r="L7" t="n">
-        <v>46.25309446007512</v>
+        <v>46.25309446007452</v>
       </c>
       <c r="M7" t="n">
-        <v>52.05859790958377</v>
+        <v>52.05859790958314</v>
       </c>
       <c r="N7" t="n">
-        <v>58.75765566247441</v>
+        <v>58.75765566247378</v>
       </c>
       <c r="O7" t="n">
-        <v>33.75393357249018</v>
+        <v>33.75393357248959</v>
       </c>
       <c r="P7" t="n">
-        <v>9.627805046023724</v>
+        <v>9.627805046023241</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>196.0580237059041</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
         <v>418.6266618111712</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>433.4611020691866</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
